--- a/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,36</t>
+          <t>-0,65; 6,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,58</t>
+          <t>3,35; 11,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,37</t>
+          <t>2,47; 10,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,94</t>
+          <t>5,34; 12,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,37</t>
+          <t>1,92; 7,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,48</t>
+          <t>5,64; 10,88</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 431,96</t>
+          <t>-22,82; 497,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,12; 797,63</t>
+          <t>55,56; 781,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,36; 971,81</t>
+          <t>42,77; 969,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>115,69; 1010,49</t>
+          <t>123,77; 1134,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,11; 431,18</t>
+          <t>41,33; 478,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>126,05; 718,11</t>
+          <t>136,53; 695,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,98</t>
+          <t>-3,65; 3,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -1,73</t>
+          <t>-7,91; -1,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 15,18</t>
+          <t>5,64; 15,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,66</t>
+          <t>-3,33; 3,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -0,83</t>
+          <t>-7,19; -0,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,63</t>
+          <t>4,41; 11,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,07</t>
+          <t>-2,18; 3,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; -2,01</t>
+          <t>-6,17; -1,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,04</t>
+          <t>6,32; 11,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 65,62</t>
+          <t>-36,97; 65,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,96; -24,78</t>
+          <t>-78,05; -23,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,95; 245,13</t>
+          <t>58,5; 254,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 56,61</t>
+          <t>-35,41; 56,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,29; -10,4</t>
+          <t>-70,48; -8,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,19; 198,44</t>
+          <t>43,22; 181,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 45,81</t>
+          <t>-24,45; 45,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,81; -30,31</t>
+          <t>-68,18; -25,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,12; 182,6</t>
+          <t>67,09; 179,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 9,16</t>
+          <t>2,11; 9,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,41</t>
+          <t>-2,79; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 14,98</t>
+          <t>7,41; 14,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,68</t>
+          <t>1,88; 8,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,48</t>
+          <t>-1,91; 3,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 11,38</t>
+          <t>5,23; 11,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,69</t>
+          <t>2,78; 7,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,77</t>
+          <t>-1,96; 1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,07</t>
+          <t>6,87; 11,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,47; 865,43</t>
+          <t>37,33; 844,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,33; 201,17</t>
+          <t>-80,5; 182,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184,19; 1489,15</t>
+          <t>188,37; 1553,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,32; 564,65</t>
+          <t>37,78; 510,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 234,5</t>
+          <t>-49,63; 239,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,13; 707,64</t>
+          <t>103,04; 720,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>59,58; 441,17</t>
+          <t>69,81; 445,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 113,52</t>
+          <t>-54,51; 91,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>181,05; 697,93</t>
+          <t>183,3; 741,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,62</t>
+          <t>2,17; 6,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,34</t>
+          <t>3,21; 9,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,99</t>
+          <t>1,67; 9,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,85</t>
+          <t>2,96; 9,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,53</t>
+          <t>2,44; 10,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,45</t>
+          <t>-2,75; 3,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,42</t>
+          <t>3,23; 7,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,05</t>
+          <t>3,58; 9,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 5,12</t>
+          <t>0,16; 5,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>48,28; 518,96</t>
+          <t>48,5; 528,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,27; 695,39</t>
+          <t>85,15; 794,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,54; 665,13</t>
+          <t>47,3; 690,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,5; 315,67</t>
+          <t>38,4; 308,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,66; 305,91</t>
+          <t>29,37; 311,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 108,45</t>
+          <t>-45,03; 98,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>63,51; 273,71</t>
+          <t>67,71; 288,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,13; 339,28</t>
+          <t>74,0; 346,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 180,52</t>
+          <t>0,49; 183,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 11,38</t>
+          <t>-0,85; 11,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 4,1</t>
+          <t>-5,9; 4,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 3,69</t>
+          <t>-5,61; 3,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,1; 16,36</t>
+          <t>2,82; 16,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,99</t>
+          <t>-8,47; 2,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1,92</t>
+          <t>-8,12; 2,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,95; 11,85</t>
+          <t>2,57; 12,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,7</t>
+          <t>-5,71; 1,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,85</t>
+          <t>-5,09; 1,89</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 201,01</t>
+          <t>-10,73; 207,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 83,36</t>
+          <t>-56,44; 89,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 67,73</t>
+          <t>-50,93; 68,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,94; 236,8</t>
+          <t>19,42; 253,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,71; 35,19</t>
+          <t>-65,16; 40,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,35; 28,72</t>
+          <t>-57,71; 36,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,33; 164,4</t>
+          <t>20,99; 165,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 25,82</t>
+          <t>-51,29; 23,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 26,28</t>
+          <t>-43,05; 28,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,34</t>
+          <t>2,5; 8,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,97</t>
+          <t>4,46; 11,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,43; 26,37</t>
+          <t>16,92; 25,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,37; 13,07</t>
+          <t>4,8; 13,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,61; 11,29</t>
+          <t>2,47; 10,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,71; 21,46</t>
+          <t>12,97; 21,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,64</t>
+          <t>4,44; 9,95</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,07</t>
+          <t>4,55; 9,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,19</t>
+          <t>16,4; 22,73</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>49,14; —</t>
+          <t>44,96; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>172,66; —</t>
+          <t>164,03; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>635,5; —</t>
+          <t>725,96; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>94,91; 1039,88</t>
+          <t>89,0; 941,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>51,6; 859,35</t>
+          <t>43,3; 680,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>265,63; 1871,57</t>
+          <t>283,04; 1678,66</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>148,85; 1019,77</t>
+          <t>154,42; 1126,58</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>177,41; 1193,43</t>
+          <t>152,35; 1122,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>547,16; 2455,02</t>
+          <t>560,57; 2494,44</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,98</t>
+          <t>-1,85; 3,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,83</t>
+          <t>-3,64; 1,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,91</t>
+          <t>2,66; 9,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,19</t>
+          <t>-0,84; 4,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,33</t>
+          <t>-2,39; 3,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,68; 49,99</t>
+          <t>6,58; 47,63</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,77</t>
+          <t>-0,26; 3,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,46</t>
+          <t>-2,36; 1,23</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,93; 33,89</t>
+          <t>5,86; 32,64</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 90,44</t>
+          <t>-28,66; 83,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 21,89</t>
+          <t>-53,03; 31,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>36,67; 202,41</t>
+          <t>35,83; 206,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 123,13</t>
+          <t>-12,39; 120,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 78,41</t>
+          <t>-34,6; 72,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>107,14; 1010,98</t>
+          <t>102,8; 1058,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 84,31</t>
+          <t>-5,39; 74,26</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 32,16</t>
+          <t>-38,03; 24,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>98,9; 682,2</t>
+          <t>96,23; 634,28</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,77</t>
+          <t>-2,39; 3,07</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,32</t>
+          <t>-2,14; 3,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,64</t>
+          <t>-2,64; 2,56</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,49</t>
+          <t>-6,03; -0,12</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,01</t>
+          <t>-4,68; 1,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,24</t>
+          <t>-3,42; 2,36</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,3</t>
+          <t>-3,43; 0,32</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,36</t>
+          <t>-2,66; 1,1</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,57</t>
+          <t>-2,35; 1,59</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 54,16</t>
+          <t>-30,81; 60,33</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 64,92</t>
+          <t>-28,28; 59,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 51,0</t>
+          <t>-34,9; 49,42</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -5,96</t>
+          <t>-54,43; -0,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 13,44</t>
+          <t>-42,89; 14,61</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 28,74</t>
+          <t>-30,58; 30,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 4,61</t>
+          <t>-39,21; 4,32</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 19,13</t>
+          <t>-29,52; 15,72</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 22,04</t>
+          <t>-26,0; 21,82</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,62</t>
+          <t>1,17; 3,55</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,69</t>
+          <t>-0,53; 1,65</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,89</t>
+          <t>5,03; 7,98</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,22</t>
+          <t>1,46; 4,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,94</t>
+          <t>-0,63; 1,73</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,71; 17,15</t>
+          <t>4,75; 16,67</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,56</t>
+          <t>1,71; 3,53</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,48</t>
+          <t>-0,15; 1,45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,97</t>
+          <t>5,48; 12,24</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>18,88; 79,7</t>
+          <t>20,1; 77,28</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 37,58</t>
+          <t>-9,85; 36,58</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>90,49; 172,48</t>
+          <t>89,64; 178,66</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>22,0; 74,39</t>
+          <t>21,13; 73,62</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 34,31</t>
+          <t>-9,16; 30,6</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>72,35; 295,98</t>
+          <t>72,23; 271,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>28,4; 68,64</t>
+          <t>28,06; 66,41</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 28,75</t>
+          <t>-2,25; 28,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>92,38; 221,9</t>
+          <t>93,09; 211,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>7,42</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 9,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,97</t>
+          <t>2,94; 11,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,52; 15,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,05</t>
+          <t>4,9; 11,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 10,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,88</t>
+          <t>5,07; 10,27</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>255,89%</t>
+          <t>236,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>452,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>364,57%</t>
+          <t>344,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>299,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>304,91%</t>
+          <t>284,06%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,77; 749,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,56; 781,92</t>
+          <t>46,26; 746,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>145,11; 1572,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>123,77; 1134,5</t>
+          <t>114,13; 1074,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>113,42; 646,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>136,53; 695,74</t>
+          <t>124,77; 650,67</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>8,45</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 15,33</t>
+          <t>4,7; 14,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,38</t>
+          <t>4,04; 10,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,86</t>
+          <t>5,72; 11,34</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>131,37%</t>
+          <t>118,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>102,97%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>116,74%</t>
+          <t>108,47%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,5; 254,89</t>
+          <t>48,37; 235,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,22; 181,53</t>
+          <t>39,89; 179,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,09; 179,54</t>
+          <t>60,8; 168,13</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>10,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>9,27</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 14,88</t>
+          <t>7,18; 14,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,59</t>
+          <t>5,18; 11,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,88</t>
+          <t>6,75; 11,79</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>496,25%</t>
+          <t>486,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>285,72%</t>
+          <t>283,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>372,28%</t>
+          <t>367,94%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>188,37; 1553,6</t>
+          <t>181,09; 1525,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>103,04; 720,08</t>
+          <t>104,25; 720,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>183,3; 741,28</t>
+          <t>178,85; 727,86</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,01</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>4,46</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,01</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,87</t>
+          <t>1,03; 6,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,37 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,58</t>
+          <t>1,39; 9,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,65</t>
+          <t>0,7; 8,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 10,32</t>
+          <t>2,08; 10,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,28</t>
+          <t>-4,32; 1,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,51</t>
+          <t>1,63; 6,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,06</t>
+          <t>3,44; 8,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,05</t>
+          <t>-0,94; 3,84</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>194,18%</t>
+          <t>157,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,37 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>219,85%</t>
+          <t>195,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>131,01%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>130,04%</t>
+          <t>118,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>-23,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>150,34%</t>
+          <t>109,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>171,98%</t>
+          <t>162,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>35,68%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>48,5; 528,57</t>
+          <t>20,59; 546,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,3; 690,26</t>
+          <t>34,96; 655,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,4; 308,56</t>
+          <t>8,38; 238,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,37; 311,97</t>
+          <t>28,96; 289,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 98,72</t>
+          <t>-62,79; 48,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,71; 288,93</t>
+          <t>32,91; 239,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,0; 346,27</t>
+          <t>70,28; 320,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 183,14</t>
+          <t>-23,38; 129,27</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,91</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 3,82</t>
+          <t>-5,62; 3,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 2,41</t>
+          <t>-9,66; 1,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 1,89</t>
+          <t>-5,78; 1,54</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-21,68%</t>
+          <t>-28,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-21,09%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 68,86</t>
+          <t>-51,35; 68,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 36,59</t>
+          <t>-67,6; 24,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 28,14</t>
+          <t>-49,82; 22,25</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>21,37</t>
+          <t>20,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>19,24</t>
+          <t>18,75</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>16,92; 25,78</t>
+          <t>16,08; 24,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,97; 21,43</t>
+          <t>12,87; 21,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,73</t>
+          <t>15,89; 22,16</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2997,17%</t>
+          <t>2865,47%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>658,88%</t>
+          <t>655,78%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1152,96%</t>
+          <t>1123,27%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>725,96; —</t>
+          <t>661,14; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>283,04; 1678,66</t>
+          <t>281,25; 1665,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>560,57; 2494,44</t>
+          <t>548,84; 2430,77</t>
         </is>
       </c>
     </row>
@@ -1938,37 +1938,37 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>13,49</t>
+          <t>18,6</t>
         </is>
       </c>
     </row>
@@ -1991,37 +1991,37 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,19</t>
+          <t>2,31; 8,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,97</t>
+          <t>-1,03; 4,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,04</t>
+          <t>-2,54; 2,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,58; 47,63</t>
+          <t>6,21; 62,22</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,58</t>
+          <t>-0,33; 3,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,23</t>
+          <t>-2,53; 1,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,86; 32,64</t>
+          <t>5,48; 45,73</t>
         </is>
       </c>
     </row>
@@ -2044,37 +2044,37 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>102,49%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>350,58%</t>
+          <t>494,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>241,03%</t>
+          <t>327,94%</t>
         </is>
       </c>
     </row>
@@ -2097,37 +2097,37 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>35,83; 206,1</t>
+          <t>31,24; 196,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 120,82</t>
+          <t>-16,11; 113,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 72,47</t>
+          <t>-36,59; 63,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>102,8; 1058,9</t>
+          <t>96,36; 1462,26</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 74,26</t>
+          <t>-5,81; 71,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 24,44</t>
+          <t>-38,36; 22,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>96,23; 634,28</t>
+          <t>90,05; 856,68</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,56</t>
+          <t>-5,74; 0,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,36</t>
+          <t>-3,92; 1,69</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,59</t>
+          <t>-4,83; 0,14</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-29,45%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-10,3%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>-21,58%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 49,42</t>
+          <t>-71,75; 14,3</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 30,79</t>
+          <t>-33,79; 21,98</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 21,82</t>
+          <t>-51,97; 1,13</t>
         </is>
       </c>
     </row>
@@ -2370,37 +2370,37 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,56</t>
         </is>
       </c>
     </row>
@@ -2423,37 +2423,37 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,98</t>
+          <t>3,22; 7,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,11</t>
+          <t>1,4; 4,05</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,73</t>
+          <t>-0,68; 1,68</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,75; 16,67</t>
+          <t>4,15; 24,37</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,53</t>
+          <t>1,69; 3,51</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,45</t>
+          <t>-0,17; 1,42</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,24</t>
+          <t>4,59; 15,64</t>
         </is>
       </c>
     </row>
@@ -2476,37 +2476,37 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>128,95%</t>
+          <t>109,53%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>124,26%</t>
+          <t>151,36%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>127,36%</t>
+          <t>134,04%</t>
         </is>
       </c>
     </row>
@@ -2529,37 +2529,37 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>89,64; 178,66</t>
+          <t>61,84; 160,31</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>21,13; 73,62</t>
+          <t>20,11; 71,73</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 30,6</t>
+          <t>-10,08; 29,19</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>72,23; 271,87</t>
+          <t>63,34; 402,44</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>28,06; 66,41</t>
+          <t>27,45; 65,99</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 28,99</t>
+          <t>-2,75; 27,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>93,09; 211,38</t>
+          <t>78,4; 292,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 9,02</t>
+          <t>1,18; 9,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,19</t>
+          <t>-0,49; 6,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,58</t>
+          <t>2,9; 10,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 15,73</t>
+          <t>6,27; 15,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 10,45</t>
+          <t>2,71; 10,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 11,41</t>
+          <t>5,0; 11,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,87</t>
+          <t>4,9; 10,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,32</t>
+          <t>2,18; 7,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,27</t>
+          <t>4,94; 10,26</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 749,78</t>
+          <t>17,16; 622,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 497,18</t>
+          <t>-18,6; 565,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,26; 746,58</t>
+          <t>43,63; 735,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>145,11; 1572,44</t>
+          <t>142,84; 1455,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,77; 969,5</t>
+          <t>45,98; 888,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>114,13; 1074,34</t>
+          <t>98,53; 1196,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>113,42; 646,85</t>
+          <t>129,44; 646,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,33; 478,11</t>
+          <t>46,08; 424,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>124,77; 650,67</t>
+          <t>127,07; 624,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,99</t>
+          <t>-3,23; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -1,65</t>
+          <t>-7,56; -1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 14,31</t>
+          <t>4,99; 13,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,58</t>
+          <t>-3,19; 3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -0,72</t>
+          <t>-7,35; -0,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,88</t>
+          <t>4,21; 11,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,01</t>
+          <t>-2,32; 2,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -1,66</t>
+          <t>-6,23; -2,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 11,34</t>
+          <t>5,41; 11,25</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 65,32</t>
+          <t>-34,21; 65,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,05; -23,83</t>
+          <t>-76,9; -18,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,37; 235,32</t>
+          <t>50,65; 230,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 56,98</t>
+          <t>-32,81; 65,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,48; -8,24</t>
+          <t>-72,94; -14,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,89; 179,14</t>
+          <t>44,22; 182,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 45,75</t>
+          <t>-26,14; 40,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,18; -25,81</t>
+          <t>-67,8; -28,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,8; 168,13</t>
+          <t>59,19; 169,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,69</t>
+          <t>1,92; 9,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,21</t>
+          <t>-2,85; 1,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,71</t>
+          <t>6,81; 14,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,54</t>
+          <t>1,6; 8,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,5</t>
+          <t>-2,16; 3,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 11,58</t>
+          <t>4,54; 11,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,8</t>
+          <t>2,85; 7,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,66</t>
+          <t>-1,71; 1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,79</t>
+          <t>6,79; 12,03</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,33; 844,09</t>
+          <t>41,18; 769,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,5; 182,66</t>
+          <t>-78,75; 179,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>181,09; 1525,42</t>
+          <t>188,94; 1329,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,78; 510,85</t>
+          <t>27,97; 523,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 239,91</t>
+          <t>-54,3; 225,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>104,25; 720,14</t>
+          <t>86,61; 671,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,81; 445,52</t>
+          <t>72,94; 481,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,51; 91,03</t>
+          <t>-51,79; 108,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>178,85; 727,86</t>
+          <t>180,79; 726,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,97</t>
+          <t>1,1; 6,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,64</t>
+          <t>3,02; 9,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,2</t>
+          <t>1,19; 9,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 8,23</t>
+          <t>0,32; 8,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,06</t>
+          <t>1,84; 10,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 1,67</t>
+          <t>-4,31; 1,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,66</t>
+          <t>1,77; 6,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,92</t>
+          <t>3,42; 8,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,84</t>
+          <t>-1,03; 3,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,59; 546,54</t>
+          <t>18,06; 550,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>85,15; 794,35</t>
+          <t>72,5; 743,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,96; 655,75</t>
+          <t>22,6; 651,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,38; 238,46</t>
+          <t>2,85; 234,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,96; 289,84</t>
+          <t>20,42; 271,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 48,22</t>
+          <t>-64,65; 52,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,91; 239,78</t>
+          <t>32,98; 227,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,28; 320,1</t>
+          <t>67,74; 309,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 129,27</t>
+          <t>-23,11; 140,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 11,3</t>
+          <t>-0,65; 11,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 4,2</t>
+          <t>-6,31; 3,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,73</t>
+          <t>-5,66; 3,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 16,7</t>
+          <t>3,26; 16,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 2,11</t>
+          <t>-8,57; 2,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 1,73</t>
+          <t>-8,71; 1,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,57; 12,13</t>
+          <t>2,6; 12,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,49</t>
+          <t>-5,64; 1,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 1,54</t>
+          <t>-5,47; 1,27</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 207,88</t>
+          <t>-9,35; 206,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,44; 89,39</t>
+          <t>-57,25; 65,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 68,29</t>
+          <t>-51,81; 62,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19,42; 253,44</t>
+          <t>21,86; 245,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,16; 40,39</t>
+          <t>-64,25; 33,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,6; 24,1</t>
+          <t>-64,03; 25,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>20,99; 165,47</t>
+          <t>20,37; 176,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-51,29; 23,34</t>
+          <t>-50,91; 29,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-49,82; 22,25</t>
+          <t>-49,51; 17,53</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,87</t>
+          <t>2,2; 8,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,61</t>
+          <t>4,81; 11,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>16,08; 24,72</t>
+          <t>16,23; 25,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,8; 13,4</t>
+          <t>4,41; 12,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,47; 10,77</t>
+          <t>2,86; 11,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,87; 21,32</t>
+          <t>12,81; 21,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,95</t>
+          <t>4,54; 9,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,94</t>
+          <t>4,71; 10,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15,89; 22,16</t>
+          <t>15,9; 22,1</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>44,96; —</t>
+          <t>76,35; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>164,03; —</t>
+          <t>209,16; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>661,14; —</t>
+          <t>789,86; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>89,0; 941,19</t>
+          <t>101,3; 934,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>43,3; 680,26</t>
+          <t>58,47; 806,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>281,25; 1665,7</t>
+          <t>275,36; 1618,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>154,42; 1126,58</t>
+          <t>153,59; 930,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>152,35; 1122,64</t>
+          <t>147,39; 955,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>548,84; 2430,77</t>
+          <t>547,99; 2470,59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,8</t>
+          <t>-1,58; 3,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,15</t>
+          <t>-4,06; 0,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,83</t>
+          <t>2,3; 8,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,85</t>
+          <t>-0,7; 4,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,83</t>
+          <t>-2,16; 3,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,21; 62,22</t>
+          <t>6,38; 60,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,46</t>
+          <t>-0,29; 3,7</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,13</t>
+          <t>-2,37; 1,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,48; 45,73</t>
+          <t>5,78; 48,41</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 83,85</t>
+          <t>-22,91; 84,56</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 31,85</t>
+          <t>-58,1; 17,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>31,24; 196,32</t>
+          <t>29,45; 192,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 113,87</t>
+          <t>-11,94; 108,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 63,98</t>
+          <t>-32,83; 70,07</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>96,36; 1462,26</t>
+          <t>104,9; 1884,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 71,34</t>
+          <t>-4,94; 77,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 22,84</t>
+          <t>-36,24; 27,91</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>90,05; 856,68</t>
+          <t>93,52; 991,62</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,07</t>
+          <t>-2,67; 2,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,09</t>
+          <t>-2,4; 3,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 0,98</t>
+          <t>-5,86; 0,73</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -0,12</t>
+          <t>-5,74; -0,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,1</t>
+          <t>-4,95; 1,12</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,69</t>
+          <t>-3,65; 1,63</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,32</t>
+          <t>-3,56; 0,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,1</t>
+          <t>-2,65; 1,21</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,14</t>
+          <t>-4,91; 0,22</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 60,33</t>
+          <t>-33,9; 48,05</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 59,22</t>
+          <t>-33,11; 54,98</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 14,3</t>
+          <t>-70,72; 12,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-54,43; -0,07</t>
+          <t>-52,93; -0,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 14,61</t>
+          <t>-45,14; 14,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 21,98</t>
+          <t>-33,0; 21,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 4,32</t>
+          <t>-39,01; 3,15</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 15,72</t>
+          <t>-29,11; 17,4</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 1,13</t>
+          <t>-53,33; 1,43</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,55</t>
+          <t>1,2; 3,57</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,65</t>
+          <t>-0,6; 1,64</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,03</t>
+          <t>3,14; 6,96</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,05</t>
+          <t>1,54; 4,12</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,68</t>
+          <t>-0,6; 1,8</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,15; 24,37</t>
+          <t>4,17; 25,27</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,51</t>
+          <t>1,73; 3,41</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,42</t>
+          <t>-0,18; 1,41</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,64</t>
+          <t>4,62; 17,2</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>20,1; 77,28</t>
+          <t>21,43; 79,23</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 36,58</t>
+          <t>-10,62; 37,67</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>61,84; 160,31</t>
+          <t>58,69; 154,49</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>20,11; 71,73</t>
+          <t>22,25; 73,1</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 29,19</t>
+          <t>-8,35; 31,97</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>63,34; 402,44</t>
+          <t>64,01; 422,49</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>27,45; 65,99</t>
+          <t>29,21; 66,27</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 27,4</t>
+          <t>-2,93; 27,01</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>78,4; 292,62</t>
+          <t>79,18; 323,21</t>
         </is>
       </c>
     </row>
